--- a/lib/pict/journal_covers/journal_data.xlsx
+++ b/lib/pict/journal_covers/journal_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="20" windowWidth="8860" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="20" windowWidth="14840" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Journal_name</t>
-  </si>
-  <si>
     <t>Image_name</t>
   </si>
   <si>
@@ -51,72 +48,30 @@
     <t>ECOLOGY LETTERS</t>
   </si>
   <si>
-    <t xml:space="preserve">NATURE REVIEWS MOLECULAR CELL BIOLOGY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANCET INFECTIOUS DISEASES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENDS IN ECOLOGY &amp; EVOLUTION </t>
-  </si>
-  <si>
     <t>ELSEVIER SCIENCE LONDON</t>
   </si>
   <si>
-    <t xml:space="preserve">PHILOSOPHICAL TRANSACTIONS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES </t>
-  </si>
-  <si>
     <t>ROYAL SOC</t>
   </si>
   <si>
-    <t xml:space="preserve">EMERGING INFECTIOUS DISEASES </t>
-  </si>
-  <si>
     <t>CENTERS DISEASE CONTROL</t>
   </si>
   <si>
-    <t xml:space="preserve">BMC BIOLOGY </t>
-  </si>
-  <si>
     <t>BIOMED CENTRAL LTD</t>
   </si>
   <si>
-    <t xml:space="preserve">PLOS BIOLOGY </t>
-  </si>
-  <si>
     <t>PUBLIC LIBRARY SCIENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">CURRENT BIOLOGY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRONTIERS IN ECOLOGY AND THE ENVIRONMENT </t>
-  </si>
-  <si>
     <t>ECOLOGICAL SOCIETY OF AMERICA</t>
   </si>
   <si>
-    <t xml:space="preserve">PLANT CELL </t>
-  </si>
-  <si>
     <t>AMER SOC PLANT BIOLOGISTS</t>
   </si>
   <si>
-    <t xml:space="preserve">ECOLOGICAL MONOGRAPHS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLOBAL CHANGE BIOLOGY </t>
-  </si>
-  <si>
     <t>EVOLUTION</t>
   </si>
   <si>
-    <t xml:space="preserve">JOURNAL OF APPLIED ECOLOGY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENDS IN PLANT SCIENCE </t>
-  </si>
-  <si>
     <t>natrev.jpg</t>
   </si>
   <si>
@@ -135,9 +90,6 @@
     <t>TREE.jpg</t>
   </si>
   <si>
-    <t>Cell host and microbe</t>
-  </si>
-  <si>
     <t>philtransB.jpg</t>
   </si>
   <si>
@@ -175,6 +127,54 @@
   </si>
   <si>
     <t>tps.jpg</t>
+  </si>
+  <si>
+    <t>NATURE REVIEWS MOLECULAR CELL BIOLOGY</t>
+  </si>
+  <si>
+    <t>LANCET INFECTIOUS DISEASES</t>
+  </si>
+  <si>
+    <t>TRENDS IN ECOLOGY &amp; EVOLUTION</t>
+  </si>
+  <si>
+    <t>CELL HOST AND MICROBE</t>
+  </si>
+  <si>
+    <t>PHILOSOPHICAL TRANSACTIONS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>BMC BIOLOGY</t>
+  </si>
+  <si>
+    <t>EMERGING INFECTIOUS DISEASES</t>
+  </si>
+  <si>
+    <t>PLOS BIOLOGY</t>
+  </si>
+  <si>
+    <t>CURRENT BIOLOGY</t>
+  </si>
+  <si>
+    <t>FRONTIERS IN ECOLOGY AND THE ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>PLANT CELL</t>
+  </si>
+  <si>
+    <t>ECOLOGICAL MONOGRAPHS</t>
+  </si>
+  <si>
+    <t>GLOBAL CHANGE BIOLOGY</t>
+  </si>
+  <si>
+    <t>JOURNAL OF APPLIED ECOLOGY</t>
+  </si>
+  <si>
+    <t>TRENDS IN PLANT SCIENCE</t>
+  </si>
+  <si>
+    <t>JOURNAL_NAME</t>
   </si>
 </sst>
 </file>
@@ -706,17 +706,17 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -725,273 +725,273 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>39.122999999999998</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>32.402999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>22.462</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>17.556999999999999</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>17.390999999999998</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>15.747999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>13.5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>6.4009999999999998</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>5.75</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>6.1689999999999996</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>11.452</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>9.6470000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>9.1129999999999995</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>8.9870000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>7.4329999999999998</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>6.8620000000000001</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>5.1459999999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>5.0250000000000004</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>11.047000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
